--- a/docs/CSE Project/Survey/CSE Final Project- Survey (Responses).xlsx
+++ b/docs/CSE Project/Survey/CSE Final Project- Survey (Responses).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="240">
   <si>
     <t>Column 1</t>
   </si>
@@ -727,6 +727,12 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -873,13 +879,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -887,13 +893,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -903,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -962,9 +968,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1028,7 +1031,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M118" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M119" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="13">
     <tableColumn name="Column 1" id="1"/>
     <tableColumn name="Timestamp" id="2"/>
@@ -5485,41 +5488,79 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="18">
+      <c r="B118" s="13">
         <v>45723.29983883102</v>
       </c>
-      <c r="C118" s="19">
+      <c r="C118" s="14">
         <v>4.0</v>
       </c>
-      <c r="D118" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="19">
+      <c r="D118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="14">
         <v>6.0</v>
       </c>
-      <c r="F118" s="19" t="s">
+      <c r="F118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="19" t="s">
+      <c r="G118" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="H118" s="20" t="s">
+      <c r="H118" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I118" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="19" t="s">
+      <c r="I118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="K118" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L118" s="19" t="s">
+      <c r="K118" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M118" s="21" t="s">
+      <c r="M118" s="15" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" s="18">
+        <v>45723.62937480324</v>
+      </c>
+      <c r="C119" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G119" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H119" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K119" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L119" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M119" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
